--- a/results/disponibilidad.xlsx
+++ b/results/disponibilidad.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -413,7 +413,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -424,7 +424,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -435,7 +435,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -457,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -575,10 +575,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -597,10 +597,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -608,10 +608,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -619,10 +619,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -641,10 +641,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -652,10 +652,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -674,10 +674,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -696,10 +696,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -707,10 +707,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -718,10 +718,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -751,10 +751,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -762,10 +762,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -773,10 +773,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B40">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -828,10 +828,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -839,10 +839,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -850,10 +850,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -861,10 +861,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -883,10 +883,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -894,12 +894,6623 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>19</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>17</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>18</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>17</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>10</v>
+      </c>
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>10</v>
+      </c>
+      <c r="B69">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>11</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>11</v>
+      </c>
+      <c r="B73">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>11</v>
+      </c>
+      <c r="B74">
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>11</v>
+      </c>
+      <c r="B75">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>11</v>
+      </c>
+      <c r="B76">
+        <v>17</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>11</v>
+      </c>
+      <c r="B77">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>12</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>12</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>12</v>
+      </c>
+      <c r="B81">
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>12</v>
+      </c>
+      <c r="B82">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>12</v>
+      </c>
+      <c r="B83">
+        <v>13</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>12</v>
+      </c>
+      <c r="B84">
+        <v>14</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>12</v>
+      </c>
+      <c r="B85">
+        <v>15</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>13</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>13</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>13</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>13</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>13</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>13</v>
+      </c>
+      <c r="B91">
+        <v>11</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>13</v>
+      </c>
+      <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>13</v>
+      </c>
+      <c r="B93">
+        <v>13</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>14</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>14</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>14</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>14</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>14</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>15</v>
+      </c>
+      <c r="B100">
+        <v>12</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>15</v>
+      </c>
+      <c r="B101">
+        <v>13</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>15</v>
+      </c>
+      <c r="B102">
+        <v>14</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>15</v>
+      </c>
+      <c r="B103">
+        <v>15</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>15</v>
+      </c>
+      <c r="B104">
+        <v>16</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>15</v>
+      </c>
+      <c r="B105">
+        <v>17</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>15</v>
+      </c>
+      <c r="B106">
+        <v>18</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>15</v>
+      </c>
+      <c r="B107">
+        <v>19</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>16</v>
+      </c>
+      <c r="B108">
+        <v>17</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>16</v>
+      </c>
+      <c r="B109">
+        <v>18</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>16</v>
+      </c>
+      <c r="B110">
+        <v>19</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>16</v>
+      </c>
+      <c r="B111">
+        <v>20</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>16</v>
+      </c>
+      <c r="B112">
+        <v>21</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>17</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>17</v>
+      </c>
+      <c r="B114">
+        <v>11</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>17</v>
+      </c>
+      <c r="B115">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>17</v>
+      </c>
+      <c r="B116">
+        <v>13</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>17</v>
+      </c>
+      <c r="B117">
+        <v>14</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>17</v>
+      </c>
+      <c r="B118">
+        <v>15</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>17</v>
+      </c>
+      <c r="B119">
+        <v>16</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>18</v>
+      </c>
+      <c r="B120">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>18</v>
+      </c>
+      <c r="B121">
+        <v>13</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>18</v>
+      </c>
+      <c r="B122">
+        <v>14</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>18</v>
+      </c>
+      <c r="B123">
+        <v>15</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>18</v>
+      </c>
+      <c r="B124">
+        <v>16</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>18</v>
+      </c>
+      <c r="B125">
+        <v>17</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>19</v>
+      </c>
+      <c r="B126">
+        <v>14</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>19</v>
+      </c>
+      <c r="B127">
+        <v>15</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>19</v>
+      </c>
+      <c r="B128">
+        <v>16</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>19</v>
+      </c>
+      <c r="B129">
+        <v>17</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>19</v>
+      </c>
+      <c r="B130">
+        <v>18</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>19</v>
+      </c>
+      <c r="B131">
+        <v>19</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>20</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>20</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>20</v>
+      </c>
+      <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>20</v>
+      </c>
+      <c r="B135">
+        <v>7</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>20</v>
+      </c>
+      <c r="B136">
+        <v>8</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>20</v>
+      </c>
+      <c r="B137">
+        <v>9</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>21</v>
+      </c>
+      <c r="B138">
+        <v>15</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>21</v>
+      </c>
+      <c r="B139">
+        <v>16</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>21</v>
+      </c>
+      <c r="B140">
+        <v>17</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>21</v>
+      </c>
+      <c r="B141">
+        <v>18</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>21</v>
+      </c>
+      <c r="B142">
+        <v>19</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>21</v>
+      </c>
+      <c r="B143">
+        <v>20</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>21</v>
+      </c>
+      <c r="B144">
+        <v>21</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>21</v>
+      </c>
+      <c r="B145">
+        <v>22</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>22</v>
+      </c>
+      <c r="B146">
+        <v>16</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>22</v>
+      </c>
+      <c r="B147">
+        <v>17</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>22</v>
+      </c>
+      <c r="B148">
+        <v>18</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>22</v>
+      </c>
+      <c r="B149">
+        <v>19</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>22</v>
+      </c>
+      <c r="B150">
+        <v>20</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>22</v>
+      </c>
+      <c r="B151">
+        <v>21</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>22</v>
+      </c>
+      <c r="B152">
+        <v>22</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>22</v>
+      </c>
+      <c r="B153">
+        <v>23</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>23</v>
+      </c>
+      <c r="B154">
+        <v>15</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>23</v>
+      </c>
+      <c r="B155">
+        <v>16</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>23</v>
+      </c>
+      <c r="B156">
+        <v>17</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>23</v>
+      </c>
+      <c r="B157">
+        <v>18</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>23</v>
+      </c>
+      <c r="B158">
+        <v>19</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>23</v>
+      </c>
+      <c r="B159">
+        <v>20</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>23</v>
+      </c>
+      <c r="B160">
+        <v>21</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>23</v>
+      </c>
+      <c r="B161">
+        <v>22</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>24</v>
+      </c>
+      <c r="B162">
+        <v>8</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>24</v>
+      </c>
+      <c r="B163">
+        <v>9</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>24</v>
+      </c>
+      <c r="B164">
+        <v>10</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>24</v>
+      </c>
+      <c r="B165">
+        <v>11</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>24</v>
+      </c>
+      <c r="B166">
+        <v>12</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>24</v>
+      </c>
+      <c r="B167">
+        <v>13</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>24</v>
+      </c>
+      <c r="B168">
+        <v>14</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>25</v>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>25</v>
+      </c>
+      <c r="B170">
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>25</v>
+      </c>
+      <c r="B171">
+        <v>6</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>25</v>
+      </c>
+      <c r="B172">
+        <v>7</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>25</v>
+      </c>
+      <c r="B173">
+        <v>8</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>25</v>
+      </c>
+      <c r="B174">
+        <v>9</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>25</v>
+      </c>
+      <c r="B175">
+        <v>10</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>25</v>
+      </c>
+      <c r="B176">
+        <v>11</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>26</v>
+      </c>
+      <c r="B177">
+        <v>6</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>26</v>
+      </c>
+      <c r="B178">
+        <v>7</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>26</v>
+      </c>
+      <c r="B179">
+        <v>8</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>26</v>
+      </c>
+      <c r="B180">
+        <v>9</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>26</v>
+      </c>
+      <c r="B181">
+        <v>10</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>26</v>
+      </c>
+      <c r="B182">
+        <v>11</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>26</v>
+      </c>
+      <c r="B183">
+        <v>12</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>27</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>27</v>
+      </c>
+      <c r="B185">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>27</v>
+      </c>
+      <c r="B186">
+        <v>6</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>27</v>
+      </c>
+      <c r="B187">
+        <v>7</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>27</v>
+      </c>
+      <c r="B188">
+        <v>8</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>27</v>
+      </c>
+      <c r="B189">
+        <v>9</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>27</v>
+      </c>
+      <c r="B190">
+        <v>10</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>28</v>
+      </c>
+      <c r="B191">
+        <v>17</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>28</v>
+      </c>
+      <c r="B192">
+        <v>18</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>28</v>
+      </c>
+      <c r="B193">
+        <v>19</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>28</v>
+      </c>
+      <c r="B194">
+        <v>20</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>28</v>
+      </c>
+      <c r="B195">
+        <v>21</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>29</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>29</v>
+      </c>
+      <c r="B197">
         <v>2</v>
       </c>
-      <c r="B47">
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>29</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>29</v>
+      </c>
+      <c r="B199">
+        <v>4</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>29</v>
+      </c>
+      <c r="B200">
+        <v>5</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>29</v>
+      </c>
+      <c r="B201">
+        <v>6</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>29</v>
+      </c>
+      <c r="B202">
+        <v>7</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>29</v>
+      </c>
+      <c r="B203">
+        <v>8</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>30</v>
+      </c>
+      <c r="B204">
+        <v>15</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>30</v>
+      </c>
+      <c r="B205">
+        <v>16</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>30</v>
+      </c>
+      <c r="B206">
+        <v>17</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>30</v>
+      </c>
+      <c r="B207">
+        <v>18</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>30</v>
+      </c>
+      <c r="B208">
+        <v>19</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>31</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>31</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>31</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>31</v>
+      </c>
+      <c r="B212">
+        <v>4</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>31</v>
+      </c>
+      <c r="B213">
+        <v>5</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>31</v>
+      </c>
+      <c r="B214">
+        <v>6</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>31</v>
+      </c>
+      <c r="B215">
+        <v>7</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>31</v>
+      </c>
+      <c r="B216">
+        <v>8</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>32</v>
+      </c>
+      <c r="B217">
+        <v>19</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>32</v>
+      </c>
+      <c r="B218">
+        <v>20</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>32</v>
+      </c>
+      <c r="B219">
+        <v>21</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>32</v>
+      </c>
+      <c r="B220">
+        <v>22</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>32</v>
+      </c>
+      <c r="B221">
         <v>23</v>
       </c>
-      <c r="C47">
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>33</v>
+      </c>
+      <c r="B222">
+        <v>19</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>33</v>
+      </c>
+      <c r="B223">
+        <v>20</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>33</v>
+      </c>
+      <c r="B224">
+        <v>21</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>33</v>
+      </c>
+      <c r="B225">
+        <v>22</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>33</v>
+      </c>
+      <c r="B226">
+        <v>23</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>34</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>34</v>
+      </c>
+      <c r="B228">
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>34</v>
+      </c>
+      <c r="B229">
+        <v>4</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>34</v>
+      </c>
+      <c r="B230">
+        <v>5</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
+        <v>34</v>
+      </c>
+      <c r="B231">
+        <v>6</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>34</v>
+      </c>
+      <c r="B232">
+        <v>7</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
+        <v>35</v>
+      </c>
+      <c r="B233">
+        <v>11</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
+        <v>35</v>
+      </c>
+      <c r="B234">
+        <v>12</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
+        <v>35</v>
+      </c>
+      <c r="B235">
+        <v>13</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
+        <v>35</v>
+      </c>
+      <c r="B236">
+        <v>14</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>35</v>
+      </c>
+      <c r="B237">
+        <v>15</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238">
+        <v>35</v>
+      </c>
+      <c r="B238">
+        <v>16</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
+        <v>35</v>
+      </c>
+      <c r="B239">
+        <v>17</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240">
+        <v>36</v>
+      </c>
+      <c r="B240">
+        <v>10</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241">
+        <v>36</v>
+      </c>
+      <c r="B241">
+        <v>11</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242">
+        <v>36</v>
+      </c>
+      <c r="B242">
+        <v>12</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243">
+        <v>36</v>
+      </c>
+      <c r="B243">
+        <v>13</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244">
+        <v>36</v>
+      </c>
+      <c r="B244">
+        <v>14</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245">
+        <v>36</v>
+      </c>
+      <c r="B245">
+        <v>15</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246">
+        <v>36</v>
+      </c>
+      <c r="B246">
+        <v>16</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247">
+        <v>37</v>
+      </c>
+      <c r="B247">
+        <v>14</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248">
+        <v>37</v>
+      </c>
+      <c r="B248">
+        <v>15</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249">
+        <v>37</v>
+      </c>
+      <c r="B249">
+        <v>16</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
+        <v>37</v>
+      </c>
+      <c r="B250">
+        <v>17</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251">
+        <v>37</v>
+      </c>
+      <c r="B251">
+        <v>18</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252">
+        <v>37</v>
+      </c>
+      <c r="B252">
+        <v>19</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253">
+        <v>37</v>
+      </c>
+      <c r="B253">
+        <v>20</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254">
+        <v>37</v>
+      </c>
+      <c r="B254">
+        <v>21</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255">
+        <v>38</v>
+      </c>
+      <c r="B255">
+        <v>3</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256">
+        <v>38</v>
+      </c>
+      <c r="B256">
+        <v>4</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257">
+        <v>38</v>
+      </c>
+      <c r="B257">
+        <v>5</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258">
+        <v>38</v>
+      </c>
+      <c r="B258">
+        <v>6</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259">
+        <v>38</v>
+      </c>
+      <c r="B259">
+        <v>7</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260">
+        <v>38</v>
+      </c>
+      <c r="B260">
+        <v>8</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261">
+        <v>38</v>
+      </c>
+      <c r="B261">
+        <v>9</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262">
+        <v>38</v>
+      </c>
+      <c r="B262">
+        <v>10</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263">
+        <v>39</v>
+      </c>
+      <c r="B263">
+        <v>6</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264">
+        <v>39</v>
+      </c>
+      <c r="B264">
+        <v>7</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265">
+        <v>39</v>
+      </c>
+      <c r="B265">
+        <v>8</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266">
+        <v>39</v>
+      </c>
+      <c r="B266">
+        <v>9</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267">
+        <v>39</v>
+      </c>
+      <c r="B267">
+        <v>10</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268">
+        <v>39</v>
+      </c>
+      <c r="B268">
+        <v>11</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269">
+        <v>39</v>
+      </c>
+      <c r="B269">
+        <v>12</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270">
+        <v>40</v>
+      </c>
+      <c r="B270">
+        <v>15</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271">
+        <v>40</v>
+      </c>
+      <c r="B271">
+        <v>16</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272">
+        <v>40</v>
+      </c>
+      <c r="B272">
+        <v>17</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273">
+        <v>40</v>
+      </c>
+      <c r="B273">
+        <v>18</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274">
+        <v>40</v>
+      </c>
+      <c r="B274">
+        <v>19</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275">
+        <v>40</v>
+      </c>
+      <c r="B275">
+        <v>20</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276">
+        <v>40</v>
+      </c>
+      <c r="B276">
+        <v>21</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277">
+        <v>40</v>
+      </c>
+      <c r="B277">
+        <v>22</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278">
+        <v>41</v>
+      </c>
+      <c r="B278">
+        <v>4</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279">
+        <v>41</v>
+      </c>
+      <c r="B279">
+        <v>5</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280">
+        <v>41</v>
+      </c>
+      <c r="B280">
+        <v>6</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281">
+        <v>41</v>
+      </c>
+      <c r="B281">
+        <v>7</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282">
+        <v>41</v>
+      </c>
+      <c r="B282">
+        <v>8</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283">
+        <v>41</v>
+      </c>
+      <c r="B283">
+        <v>9</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284">
+        <v>42</v>
+      </c>
+      <c r="B284">
+        <v>10</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285">
+        <v>42</v>
+      </c>
+      <c r="B285">
+        <v>11</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286">
+        <v>42</v>
+      </c>
+      <c r="B286">
+        <v>12</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287">
+        <v>42</v>
+      </c>
+      <c r="B287">
+        <v>13</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288">
+        <v>42</v>
+      </c>
+      <c r="B288">
+        <v>14</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289">
+        <v>42</v>
+      </c>
+      <c r="B289">
+        <v>15</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290">
+        <v>43</v>
+      </c>
+      <c r="B290">
+        <v>8</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291">
+        <v>43</v>
+      </c>
+      <c r="B291">
+        <v>9</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292">
+        <v>43</v>
+      </c>
+      <c r="B292">
+        <v>10</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293">
+        <v>43</v>
+      </c>
+      <c r="B293">
+        <v>11</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294">
+        <v>43</v>
+      </c>
+      <c r="B294">
+        <v>12</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295">
+        <v>43</v>
+      </c>
+      <c r="B295">
+        <v>13</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296">
+        <v>43</v>
+      </c>
+      <c r="B296">
+        <v>14</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297">
+        <v>44</v>
+      </c>
+      <c r="B297">
+        <v>9</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298">
+        <v>44</v>
+      </c>
+      <c r="B298">
+        <v>10</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299">
+        <v>44</v>
+      </c>
+      <c r="B299">
+        <v>11</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300">
+        <v>44</v>
+      </c>
+      <c r="B300">
+        <v>12</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301">
+        <v>44</v>
+      </c>
+      <c r="B301">
+        <v>13</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302">
+        <v>45</v>
+      </c>
+      <c r="B302">
+        <v>17</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303">
+        <v>45</v>
+      </c>
+      <c r="B303">
+        <v>18</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304">
+        <v>45</v>
+      </c>
+      <c r="B304">
+        <v>19</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305">
+        <v>45</v>
+      </c>
+      <c r="B305">
+        <v>20</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306">
+        <v>45</v>
+      </c>
+      <c r="B306">
+        <v>21</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307">
+        <v>46</v>
+      </c>
+      <c r="B307">
+        <v>7</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308">
+        <v>46</v>
+      </c>
+      <c r="B308">
+        <v>8</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309">
+        <v>46</v>
+      </c>
+      <c r="B309">
+        <v>9</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310">
+        <v>46</v>
+      </c>
+      <c r="B310">
+        <v>10</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311">
+        <v>46</v>
+      </c>
+      <c r="B311">
+        <v>11</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312">
+        <v>46</v>
+      </c>
+      <c r="B312">
+        <v>12</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313">
+        <v>47</v>
+      </c>
+      <c r="B313">
+        <v>4</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314">
+        <v>47</v>
+      </c>
+      <c r="B314">
+        <v>5</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315">
+        <v>47</v>
+      </c>
+      <c r="B315">
+        <v>6</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316">
+        <v>47</v>
+      </c>
+      <c r="B316">
+        <v>7</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317">
+        <v>47</v>
+      </c>
+      <c r="B317">
+        <v>8</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318">
+        <v>47</v>
+      </c>
+      <c r="B318">
+        <v>9</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319">
+        <v>47</v>
+      </c>
+      <c r="B319">
+        <v>10</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320">
+        <v>48</v>
+      </c>
+      <c r="B320">
+        <v>3</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321">
+        <v>48</v>
+      </c>
+      <c r="B321">
+        <v>4</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322">
+        <v>48</v>
+      </c>
+      <c r="B322">
+        <v>5</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323">
+        <v>48</v>
+      </c>
+      <c r="B323">
+        <v>6</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324">
+        <v>48</v>
+      </c>
+      <c r="B324">
+        <v>7</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325">
+        <v>48</v>
+      </c>
+      <c r="B325">
+        <v>8</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326">
+        <v>48</v>
+      </c>
+      <c r="B326">
+        <v>9</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327">
+        <v>48</v>
+      </c>
+      <c r="B327">
+        <v>10</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328">
+        <v>49</v>
+      </c>
+      <c r="B328">
+        <v>16</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329">
+        <v>49</v>
+      </c>
+      <c r="B329">
+        <v>17</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330">
+        <v>49</v>
+      </c>
+      <c r="B330">
+        <v>18</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331">
+        <v>49</v>
+      </c>
+      <c r="B331">
+        <v>19</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332">
+        <v>49</v>
+      </c>
+      <c r="B332">
+        <v>20</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333">
+        <v>49</v>
+      </c>
+      <c r="B333">
+        <v>21</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334">
+        <v>49</v>
+      </c>
+      <c r="B334">
+        <v>22</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335">
+        <v>49</v>
+      </c>
+      <c r="B335">
+        <v>23</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336">
+        <v>50</v>
+      </c>
+      <c r="B336">
+        <v>12</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337">
+        <v>50</v>
+      </c>
+      <c r="B337">
+        <v>13</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338">
+        <v>50</v>
+      </c>
+      <c r="B338">
+        <v>14</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339">
+        <v>50</v>
+      </c>
+      <c r="B339">
+        <v>15</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340">
+        <v>50</v>
+      </c>
+      <c r="B340">
+        <v>16</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341">
+        <v>50</v>
+      </c>
+      <c r="B341">
+        <v>17</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342">
+        <v>50</v>
+      </c>
+      <c r="B342">
+        <v>18</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343">
+        <v>51</v>
+      </c>
+      <c r="B343">
+        <v>10</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344">
+        <v>51</v>
+      </c>
+      <c r="B344">
+        <v>11</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345">
+        <v>51</v>
+      </c>
+      <c r="B345">
+        <v>12</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346">
+        <v>51</v>
+      </c>
+      <c r="B346">
+        <v>13</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347">
+        <v>51</v>
+      </c>
+      <c r="B347">
+        <v>14</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348">
+        <v>51</v>
+      </c>
+      <c r="B348">
+        <v>15</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349">
+        <v>51</v>
+      </c>
+      <c r="B349">
+        <v>16</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350">
+        <v>52</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351">
+        <v>52</v>
+      </c>
+      <c r="B351">
+        <v>2</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352">
+        <v>52</v>
+      </c>
+      <c r="B352">
+        <v>3</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353">
+        <v>52</v>
+      </c>
+      <c r="B353">
+        <v>4</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354">
+        <v>52</v>
+      </c>
+      <c r="B354">
+        <v>5</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355">
+        <v>53</v>
+      </c>
+      <c r="B355">
+        <v>14</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356">
+        <v>53</v>
+      </c>
+      <c r="B356">
+        <v>15</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357">
+        <v>53</v>
+      </c>
+      <c r="B357">
+        <v>16</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358">
+        <v>53</v>
+      </c>
+      <c r="B358">
+        <v>17</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359">
+        <v>53</v>
+      </c>
+      <c r="B359">
+        <v>18</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360">
+        <v>54</v>
+      </c>
+      <c r="B360">
+        <v>2</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361">
+        <v>54</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362">
+        <v>54</v>
+      </c>
+      <c r="B362">
+        <v>4</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363">
+        <v>54</v>
+      </c>
+      <c r="B363">
+        <v>5</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364">
+        <v>54</v>
+      </c>
+      <c r="B364">
+        <v>6</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365">
+        <v>54</v>
+      </c>
+      <c r="B365">
+        <v>7</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366">
+        <v>54</v>
+      </c>
+      <c r="B366">
+        <v>8</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367">
+        <v>55</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368">
+        <v>55</v>
+      </c>
+      <c r="B368">
+        <v>2</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369">
+        <v>55</v>
+      </c>
+      <c r="B369">
+        <v>3</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370">
+        <v>55</v>
+      </c>
+      <c r="B370">
+        <v>4</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371">
+        <v>55</v>
+      </c>
+      <c r="B371">
+        <v>5</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372">
+        <v>56</v>
+      </c>
+      <c r="B372">
+        <v>6</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373">
+        <v>56</v>
+      </c>
+      <c r="B373">
+        <v>7</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374">
+        <v>56</v>
+      </c>
+      <c r="B374">
+        <v>8</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375">
+        <v>56</v>
+      </c>
+      <c r="B375">
+        <v>9</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376">
+        <v>56</v>
+      </c>
+      <c r="B376">
+        <v>10</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377">
+        <v>56</v>
+      </c>
+      <c r="B377">
+        <v>11</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378">
+        <v>56</v>
+      </c>
+      <c r="B378">
+        <v>12</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379">
+        <v>57</v>
+      </c>
+      <c r="B379">
+        <v>2</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380">
+        <v>57</v>
+      </c>
+      <c r="B380">
+        <v>3</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381">
+        <v>57</v>
+      </c>
+      <c r="B381">
+        <v>4</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382">
+        <v>57</v>
+      </c>
+      <c r="B382">
+        <v>5</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383">
+        <v>57</v>
+      </c>
+      <c r="B383">
+        <v>6</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384">
+        <v>58</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385">
+        <v>58</v>
+      </c>
+      <c r="B385">
+        <v>2</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386">
+        <v>58</v>
+      </c>
+      <c r="B386">
+        <v>3</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387">
+        <v>58</v>
+      </c>
+      <c r="B387">
+        <v>4</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388">
+        <v>58</v>
+      </c>
+      <c r="B388">
+        <v>5</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389">
+        <v>58</v>
+      </c>
+      <c r="B389">
+        <v>6</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390">
+        <v>58</v>
+      </c>
+      <c r="B390">
+        <v>7</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391">
+        <v>58</v>
+      </c>
+      <c r="B391">
+        <v>8</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392">
+        <v>59</v>
+      </c>
+      <c r="B392">
+        <v>9</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393">
+        <v>59</v>
+      </c>
+      <c r="B393">
+        <v>10</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394">
+        <v>59</v>
+      </c>
+      <c r="B394">
+        <v>11</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395">
+        <v>59</v>
+      </c>
+      <c r="B395">
+        <v>12</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396">
+        <v>59</v>
+      </c>
+      <c r="B396">
+        <v>13</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397">
+        <v>59</v>
+      </c>
+      <c r="B397">
+        <v>14</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398">
+        <v>60</v>
+      </c>
+      <c r="B398">
+        <v>15</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399">
+        <v>60</v>
+      </c>
+      <c r="B399">
+        <v>16</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400">
+        <v>60</v>
+      </c>
+      <c r="B400">
+        <v>17</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401">
+        <v>60</v>
+      </c>
+      <c r="B401">
+        <v>18</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402">
+        <v>60</v>
+      </c>
+      <c r="B402">
+        <v>19</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403">
+        <v>60</v>
+      </c>
+      <c r="B403">
+        <v>20</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404">
+        <v>60</v>
+      </c>
+      <c r="B404">
+        <v>21</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405">
+        <v>61</v>
+      </c>
+      <c r="B405">
+        <v>2</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406">
+        <v>61</v>
+      </c>
+      <c r="B406">
+        <v>3</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407">
+        <v>61</v>
+      </c>
+      <c r="B407">
+        <v>4</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408">
+        <v>61</v>
+      </c>
+      <c r="B408">
+        <v>5</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409">
+        <v>61</v>
+      </c>
+      <c r="B409">
+        <v>6</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410">
+        <v>61</v>
+      </c>
+      <c r="B410">
+        <v>7</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411">
+        <v>61</v>
+      </c>
+      <c r="B411">
+        <v>8</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412">
+        <v>62</v>
+      </c>
+      <c r="B412">
+        <v>5</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413">
+        <v>62</v>
+      </c>
+      <c r="B413">
+        <v>6</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414">
+        <v>62</v>
+      </c>
+      <c r="B414">
+        <v>7</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415">
+        <v>62</v>
+      </c>
+      <c r="B415">
+        <v>8</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416">
+        <v>62</v>
+      </c>
+      <c r="B416">
+        <v>9</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417">
+        <v>63</v>
+      </c>
+      <c r="B417">
+        <v>2</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418">
+        <v>63</v>
+      </c>
+      <c r="B418">
+        <v>3</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419">
+        <v>63</v>
+      </c>
+      <c r="B419">
+        <v>4</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420">
+        <v>63</v>
+      </c>
+      <c r="B420">
+        <v>5</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421">
+        <v>63</v>
+      </c>
+      <c r="B421">
+        <v>6</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422">
+        <v>64</v>
+      </c>
+      <c r="B422">
+        <v>19</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423">
+        <v>64</v>
+      </c>
+      <c r="B423">
+        <v>20</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424">
+        <v>64</v>
+      </c>
+      <c r="B424">
+        <v>21</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425">
+        <v>64</v>
+      </c>
+      <c r="B425">
+        <v>22</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426">
+        <v>64</v>
+      </c>
+      <c r="B426">
+        <v>23</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427">
+        <v>65</v>
+      </c>
+      <c r="B427">
+        <v>4</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428">
+        <v>65</v>
+      </c>
+      <c r="B428">
+        <v>5</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429">
+        <v>65</v>
+      </c>
+      <c r="B429">
+        <v>6</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430">
+        <v>65</v>
+      </c>
+      <c r="B430">
+        <v>7</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431">
+        <v>65</v>
+      </c>
+      <c r="B431">
+        <v>8</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432">
+        <v>65</v>
+      </c>
+      <c r="B432">
+        <v>9</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433">
+        <v>65</v>
+      </c>
+      <c r="B433">
+        <v>10</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434">
+        <v>66</v>
+      </c>
+      <c r="B434">
+        <v>7</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435">
+        <v>66</v>
+      </c>
+      <c r="B435">
+        <v>8</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436">
+        <v>66</v>
+      </c>
+      <c r="B436">
+        <v>9</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437">
+        <v>66</v>
+      </c>
+      <c r="B437">
+        <v>10</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438">
+        <v>66</v>
+      </c>
+      <c r="B438">
+        <v>11</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439">
+        <v>66</v>
+      </c>
+      <c r="B439">
+        <v>12</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440">
+        <v>66</v>
+      </c>
+      <c r="B440">
+        <v>13</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441">
+        <v>66</v>
+      </c>
+      <c r="B441">
+        <v>14</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442">
+        <v>67</v>
+      </c>
+      <c r="B442">
+        <v>2</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443">
+        <v>67</v>
+      </c>
+      <c r="B443">
+        <v>3</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444">
+        <v>67</v>
+      </c>
+      <c r="B444">
+        <v>4</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445">
+        <v>67</v>
+      </c>
+      <c r="B445">
+        <v>5</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446">
+        <v>67</v>
+      </c>
+      <c r="B446">
+        <v>6</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447">
+        <v>67</v>
+      </c>
+      <c r="B447">
+        <v>7</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448">
+        <v>67</v>
+      </c>
+      <c r="B448">
+        <v>8</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449">
+        <v>67</v>
+      </c>
+      <c r="B449">
+        <v>9</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450">
+        <v>68</v>
+      </c>
+      <c r="B450">
+        <v>4</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451">
+        <v>68</v>
+      </c>
+      <c r="B451">
+        <v>5</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452">
+        <v>68</v>
+      </c>
+      <c r="B452">
+        <v>6</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453">
+        <v>68</v>
+      </c>
+      <c r="B453">
+        <v>7</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454">
+        <v>68</v>
+      </c>
+      <c r="B454">
+        <v>8</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455">
+        <v>69</v>
+      </c>
+      <c r="B455">
+        <v>6</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456">
+        <v>69</v>
+      </c>
+      <c r="B456">
+        <v>7</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457">
+        <v>69</v>
+      </c>
+      <c r="B457">
+        <v>8</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458">
+        <v>69</v>
+      </c>
+      <c r="B458">
+        <v>9</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459">
+        <v>69</v>
+      </c>
+      <c r="B459">
+        <v>10</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460">
+        <v>69</v>
+      </c>
+      <c r="B460">
+        <v>11</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461">
+        <v>70</v>
+      </c>
+      <c r="B461">
+        <v>15</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462">
+        <v>70</v>
+      </c>
+      <c r="B462">
+        <v>16</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463">
+        <v>70</v>
+      </c>
+      <c r="B463">
+        <v>17</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464">
+        <v>70</v>
+      </c>
+      <c r="B464">
+        <v>18</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465">
+        <v>70</v>
+      </c>
+      <c r="B465">
+        <v>19</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466">
+        <v>70</v>
+      </c>
+      <c r="B466">
+        <v>20</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467">
+        <v>71</v>
+      </c>
+      <c r="B467">
+        <v>10</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468">
+        <v>71</v>
+      </c>
+      <c r="B468">
+        <v>11</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469">
+        <v>71</v>
+      </c>
+      <c r="B469">
+        <v>12</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470">
+        <v>71</v>
+      </c>
+      <c r="B470">
+        <v>13</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471">
+        <v>71</v>
+      </c>
+      <c r="B471">
+        <v>14</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472">
+        <v>71</v>
+      </c>
+      <c r="B472">
+        <v>15</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473">
+        <v>71</v>
+      </c>
+      <c r="B473">
+        <v>16</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474">
+        <v>72</v>
+      </c>
+      <c r="B474">
+        <v>17</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475">
+        <v>72</v>
+      </c>
+      <c r="B475">
+        <v>18</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476">
+        <v>72</v>
+      </c>
+      <c r="B476">
+        <v>19</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477">
+        <v>72</v>
+      </c>
+      <c r="B477">
+        <v>20</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478">
+        <v>72</v>
+      </c>
+      <c r="B478">
+        <v>21</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479">
+        <v>73</v>
+      </c>
+      <c r="B479">
+        <v>15</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480">
+        <v>73</v>
+      </c>
+      <c r="B480">
+        <v>16</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481">
+        <v>73</v>
+      </c>
+      <c r="B481">
+        <v>17</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482">
+        <v>73</v>
+      </c>
+      <c r="B482">
+        <v>18</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483">
+        <v>73</v>
+      </c>
+      <c r="B483">
+        <v>19</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484">
+        <v>73</v>
+      </c>
+      <c r="B484">
+        <v>20</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485">
+        <v>73</v>
+      </c>
+      <c r="B485">
+        <v>21</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486">
+        <v>73</v>
+      </c>
+      <c r="B486">
+        <v>22</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487">
+        <v>74</v>
+      </c>
+      <c r="B487">
+        <v>6</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488">
+        <v>74</v>
+      </c>
+      <c r="B488">
+        <v>7</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489">
+        <v>74</v>
+      </c>
+      <c r="B489">
+        <v>8</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490">
+        <v>74</v>
+      </c>
+      <c r="B490">
+        <v>9</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491">
+        <v>74</v>
+      </c>
+      <c r="B491">
+        <v>10</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492">
+        <v>75</v>
+      </c>
+      <c r="B492">
+        <v>4</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493">
+        <v>75</v>
+      </c>
+      <c r="B493">
+        <v>5</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494">
+        <v>75</v>
+      </c>
+      <c r="B494">
+        <v>6</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495">
+        <v>75</v>
+      </c>
+      <c r="B495">
+        <v>7</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496">
+        <v>75</v>
+      </c>
+      <c r="B496">
+        <v>8</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497">
+        <v>75</v>
+      </c>
+      <c r="B497">
+        <v>9</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498">
+        <v>75</v>
+      </c>
+      <c r="B498">
+        <v>10</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499">
+        <v>76</v>
+      </c>
+      <c r="B499">
+        <v>4</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500">
+        <v>76</v>
+      </c>
+      <c r="B500">
+        <v>5</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501">
+        <v>76</v>
+      </c>
+      <c r="B501">
+        <v>6</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502">
+        <v>76</v>
+      </c>
+      <c r="B502">
+        <v>7</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503">
+        <v>76</v>
+      </c>
+      <c r="B503">
+        <v>8</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504">
+        <v>77</v>
+      </c>
+      <c r="B504">
+        <v>6</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505">
+        <v>77</v>
+      </c>
+      <c r="B505">
+        <v>7</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506">
+        <v>77</v>
+      </c>
+      <c r="B506">
+        <v>8</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507">
+        <v>77</v>
+      </c>
+      <c r="B507">
+        <v>9</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508">
+        <v>77</v>
+      </c>
+      <c r="B508">
+        <v>10</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509">
+        <v>77</v>
+      </c>
+      <c r="B509">
+        <v>11</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510">
+        <v>78</v>
+      </c>
+      <c r="B510">
+        <v>6</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511">
+        <v>78</v>
+      </c>
+      <c r="B511">
+        <v>7</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512">
+        <v>78</v>
+      </c>
+      <c r="B512">
+        <v>8</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513">
+        <v>78</v>
+      </c>
+      <c r="B513">
+        <v>9</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514">
+        <v>78</v>
+      </c>
+      <c r="B514">
+        <v>10</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515">
+        <v>78</v>
+      </c>
+      <c r="B515">
+        <v>11</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516">
+        <v>79</v>
+      </c>
+      <c r="B516">
+        <v>12</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517">
+        <v>79</v>
+      </c>
+      <c r="B517">
+        <v>13</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518">
+        <v>79</v>
+      </c>
+      <c r="B518">
+        <v>14</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519">
+        <v>79</v>
+      </c>
+      <c r="B519">
+        <v>15</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520">
+        <v>79</v>
+      </c>
+      <c r="B520">
+        <v>16</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521">
+        <v>79</v>
+      </c>
+      <c r="B521">
+        <v>17</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522">
+        <v>79</v>
+      </c>
+      <c r="B522">
+        <v>18</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523">
+        <v>80</v>
+      </c>
+      <c r="B523">
+        <v>3</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524">
+        <v>80</v>
+      </c>
+      <c r="B524">
+        <v>4</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525">
+        <v>80</v>
+      </c>
+      <c r="B525">
+        <v>5</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526">
+        <v>80</v>
+      </c>
+      <c r="B526">
+        <v>6</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527">
+        <v>80</v>
+      </c>
+      <c r="B527">
+        <v>7</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528">
+        <v>81</v>
+      </c>
+      <c r="B528">
+        <v>3</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529">
+        <v>81</v>
+      </c>
+      <c r="B529">
+        <v>4</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530">
+        <v>81</v>
+      </c>
+      <c r="B530">
+        <v>5</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531">
+        <v>81</v>
+      </c>
+      <c r="B531">
+        <v>6</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532">
+        <v>81</v>
+      </c>
+      <c r="B532">
+        <v>7</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533">
+        <v>81</v>
+      </c>
+      <c r="B533">
+        <v>8</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534">
+        <v>81</v>
+      </c>
+      <c r="B534">
+        <v>9</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535">
+        <v>81</v>
+      </c>
+      <c r="B535">
+        <v>10</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536">
+        <v>82</v>
+      </c>
+      <c r="B536">
+        <v>15</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537">
+        <v>82</v>
+      </c>
+      <c r="B537">
+        <v>16</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538">
+        <v>82</v>
+      </c>
+      <c r="B538">
+        <v>17</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539">
+        <v>82</v>
+      </c>
+      <c r="B539">
+        <v>18</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540">
+        <v>82</v>
+      </c>
+      <c r="B540">
+        <v>19</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541">
+        <v>82</v>
+      </c>
+      <c r="B541">
+        <v>20</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542">
+        <v>83</v>
+      </c>
+      <c r="B542">
+        <v>18</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543">
+        <v>83</v>
+      </c>
+      <c r="B543">
+        <v>19</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544">
+        <v>83</v>
+      </c>
+      <c r="B544">
+        <v>20</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545">
+        <v>83</v>
+      </c>
+      <c r="B545">
+        <v>21</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546">
+        <v>83</v>
+      </c>
+      <c r="B546">
+        <v>22</v>
+      </c>
+      <c r="C546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547">
+        <v>84</v>
+      </c>
+      <c r="B547">
+        <v>2</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548">
+        <v>84</v>
+      </c>
+      <c r="B548">
+        <v>3</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549">
+        <v>84</v>
+      </c>
+      <c r="B549">
+        <v>4</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550">
+        <v>84</v>
+      </c>
+      <c r="B550">
+        <v>5</v>
+      </c>
+      <c r="C550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551">
+        <v>84</v>
+      </c>
+      <c r="B551">
+        <v>6</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552">
+        <v>85</v>
+      </c>
+      <c r="B552">
+        <v>13</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553">
+        <v>85</v>
+      </c>
+      <c r="B553">
+        <v>14</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554">
+        <v>85</v>
+      </c>
+      <c r="B554">
+        <v>15</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555">
+        <v>85</v>
+      </c>
+      <c r="B555">
+        <v>16</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556">
+        <v>85</v>
+      </c>
+      <c r="B556">
+        <v>17</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557">
+        <v>86</v>
+      </c>
+      <c r="B557">
+        <v>8</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558">
+        <v>86</v>
+      </c>
+      <c r="B558">
+        <v>9</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559">
+        <v>86</v>
+      </c>
+      <c r="B559">
+        <v>10</v>
+      </c>
+      <c r="C559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560">
+        <v>86</v>
+      </c>
+      <c r="B560">
+        <v>11</v>
+      </c>
+      <c r="C560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561">
+        <v>86</v>
+      </c>
+      <c r="B561">
+        <v>12</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562">
+        <v>86</v>
+      </c>
+      <c r="B562">
+        <v>13</v>
+      </c>
+      <c r="C562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563">
+        <v>86</v>
+      </c>
+      <c r="B563">
+        <v>14</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564">
+        <v>87</v>
+      </c>
+      <c r="B564">
+        <v>11</v>
+      </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565">
+        <v>87</v>
+      </c>
+      <c r="B565">
+        <v>12</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566">
+        <v>87</v>
+      </c>
+      <c r="B566">
+        <v>13</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567">
+        <v>87</v>
+      </c>
+      <c r="B567">
+        <v>14</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568">
+        <v>87</v>
+      </c>
+      <c r="B568">
+        <v>15</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569">
+        <v>87</v>
+      </c>
+      <c r="B569">
+        <v>16</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570">
+        <v>87</v>
+      </c>
+      <c r="B570">
+        <v>17</v>
+      </c>
+      <c r="C570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571">
+        <v>88</v>
+      </c>
+      <c r="B571">
+        <v>2</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572">
+        <v>88</v>
+      </c>
+      <c r="B572">
+        <v>3</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573">
+        <v>88</v>
+      </c>
+      <c r="B573">
+        <v>4</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574">
+        <v>88</v>
+      </c>
+      <c r="B574">
+        <v>5</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575">
+        <v>88</v>
+      </c>
+      <c r="B575">
+        <v>6</v>
+      </c>
+      <c r="C575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576">
+        <v>89</v>
+      </c>
+      <c r="B576">
+        <v>13</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577">
+        <v>89</v>
+      </c>
+      <c r="B577">
+        <v>14</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578">
+        <v>89</v>
+      </c>
+      <c r="B578">
+        <v>15</v>
+      </c>
+      <c r="C578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579">
+        <v>89</v>
+      </c>
+      <c r="B579">
+        <v>16</v>
+      </c>
+      <c r="C579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580">
+        <v>89</v>
+      </c>
+      <c r="B580">
+        <v>17</v>
+      </c>
+      <c r="C580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581">
+        <v>89</v>
+      </c>
+      <c r="B581">
+        <v>18</v>
+      </c>
+      <c r="C581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582">
+        <v>90</v>
+      </c>
+      <c r="B582">
+        <v>14</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583">
+        <v>90</v>
+      </c>
+      <c r="B583">
+        <v>15</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584">
+        <v>90</v>
+      </c>
+      <c r="B584">
+        <v>16</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585">
+        <v>90</v>
+      </c>
+      <c r="B585">
+        <v>17</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586">
+        <v>90</v>
+      </c>
+      <c r="B586">
+        <v>18</v>
+      </c>
+      <c r="C586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587">
+        <v>90</v>
+      </c>
+      <c r="B587">
+        <v>19</v>
+      </c>
+      <c r="C587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588">
+        <v>91</v>
+      </c>
+      <c r="B588">
+        <v>15</v>
+      </c>
+      <c r="C588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589">
+        <v>91</v>
+      </c>
+      <c r="B589">
+        <v>16</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590">
+        <v>91</v>
+      </c>
+      <c r="B590">
+        <v>17</v>
+      </c>
+      <c r="C590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591">
+        <v>91</v>
+      </c>
+      <c r="B591">
+        <v>18</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592">
+        <v>91</v>
+      </c>
+      <c r="B592">
+        <v>19</v>
+      </c>
+      <c r="C592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593">
+        <v>91</v>
+      </c>
+      <c r="B593">
+        <v>20</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594">
+        <v>91</v>
+      </c>
+      <c r="B594">
+        <v>21</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595">
+        <v>91</v>
+      </c>
+      <c r="B595">
+        <v>22</v>
+      </c>
+      <c r="C595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596">
+        <v>92</v>
+      </c>
+      <c r="B596">
+        <v>19</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597">
+        <v>92</v>
+      </c>
+      <c r="B597">
+        <v>20</v>
+      </c>
+      <c r="C597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598">
+        <v>92</v>
+      </c>
+      <c r="B598">
+        <v>21</v>
+      </c>
+      <c r="C598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599">
+        <v>92</v>
+      </c>
+      <c r="B599">
+        <v>22</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600">
+        <v>92</v>
+      </c>
+      <c r="B600">
+        <v>23</v>
+      </c>
+      <c r="C600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601">
+        <v>93</v>
+      </c>
+      <c r="B601">
+        <v>11</v>
+      </c>
+      <c r="C601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602">
+        <v>93</v>
+      </c>
+      <c r="B602">
+        <v>12</v>
+      </c>
+      <c r="C602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603">
+        <v>93</v>
+      </c>
+      <c r="B603">
+        <v>13</v>
+      </c>
+      <c r="C603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604">
+        <v>93</v>
+      </c>
+      <c r="B604">
+        <v>14</v>
+      </c>
+      <c r="C604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605">
+        <v>93</v>
+      </c>
+      <c r="B605">
+        <v>15</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606">
+        <v>93</v>
+      </c>
+      <c r="B606">
+        <v>16</v>
+      </c>
+      <c r="C606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607">
+        <v>94</v>
+      </c>
+      <c r="B607">
+        <v>10</v>
+      </c>
+      <c r="C607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608">
+        <v>94</v>
+      </c>
+      <c r="B608">
+        <v>11</v>
+      </c>
+      <c r="C608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609">
+        <v>94</v>
+      </c>
+      <c r="B609">
+        <v>12</v>
+      </c>
+      <c r="C609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610">
+        <v>94</v>
+      </c>
+      <c r="B610">
+        <v>13</v>
+      </c>
+      <c r="C610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611">
+        <v>94</v>
+      </c>
+      <c r="B611">
+        <v>14</v>
+      </c>
+      <c r="C611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612">
+        <v>94</v>
+      </c>
+      <c r="B612">
+        <v>15</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613">
+        <v>94</v>
+      </c>
+      <c r="B613">
+        <v>16</v>
+      </c>
+      <c r="C613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614">
+        <v>94</v>
+      </c>
+      <c r="B614">
+        <v>17</v>
+      </c>
+      <c r="C614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615">
+        <v>95</v>
+      </c>
+      <c r="B615">
+        <v>14</v>
+      </c>
+      <c r="C615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616">
+        <v>95</v>
+      </c>
+      <c r="B616">
+        <v>15</v>
+      </c>
+      <c r="C616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617">
+        <v>95</v>
+      </c>
+      <c r="B617">
+        <v>16</v>
+      </c>
+      <c r="C617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618">
+        <v>95</v>
+      </c>
+      <c r="B618">
+        <v>17</v>
+      </c>
+      <c r="C618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619">
+        <v>95</v>
+      </c>
+      <c r="B619">
+        <v>18</v>
+      </c>
+      <c r="C619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620">
+        <v>96</v>
+      </c>
+      <c r="B620">
+        <v>16</v>
+      </c>
+      <c r="C620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621">
+        <v>96</v>
+      </c>
+      <c r="B621">
+        <v>17</v>
+      </c>
+      <c r="C621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622">
+        <v>96</v>
+      </c>
+      <c r="B622">
+        <v>18</v>
+      </c>
+      <c r="C622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623">
+        <v>96</v>
+      </c>
+      <c r="B623">
+        <v>19</v>
+      </c>
+      <c r="C623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624">
+        <v>96</v>
+      </c>
+      <c r="B624">
+        <v>20</v>
+      </c>
+      <c r="C624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625">
+        <v>96</v>
+      </c>
+      <c r="B625">
+        <v>21</v>
+      </c>
+      <c r="C625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626">
+        <v>97</v>
+      </c>
+      <c r="B626">
+        <v>6</v>
+      </c>
+      <c r="C626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627">
+        <v>97</v>
+      </c>
+      <c r="B627">
+        <v>7</v>
+      </c>
+      <c r="C627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628">
+        <v>97</v>
+      </c>
+      <c r="B628">
+        <v>8</v>
+      </c>
+      <c r="C628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629">
+        <v>97</v>
+      </c>
+      <c r="B629">
+        <v>9</v>
+      </c>
+      <c r="C629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630">
+        <v>97</v>
+      </c>
+      <c r="B630">
+        <v>10</v>
+      </c>
+      <c r="C630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631">
+        <v>98</v>
+      </c>
+      <c r="B631">
+        <v>16</v>
+      </c>
+      <c r="C631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632">
+        <v>98</v>
+      </c>
+      <c r="B632">
+        <v>17</v>
+      </c>
+      <c r="C632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633">
+        <v>98</v>
+      </c>
+      <c r="B633">
+        <v>18</v>
+      </c>
+      <c r="C633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634">
+        <v>98</v>
+      </c>
+      <c r="B634">
+        <v>19</v>
+      </c>
+      <c r="C634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635">
+        <v>98</v>
+      </c>
+      <c r="B635">
+        <v>20</v>
+      </c>
+      <c r="C635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636">
+        <v>98</v>
+      </c>
+      <c r="B636">
+        <v>21</v>
+      </c>
+      <c r="C636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637">
+        <v>98</v>
+      </c>
+      <c r="B637">
+        <v>22</v>
+      </c>
+      <c r="C637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638">
+        <v>98</v>
+      </c>
+      <c r="B638">
+        <v>23</v>
+      </c>
+      <c r="C638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639">
+        <v>99</v>
+      </c>
+      <c r="B639">
+        <v>13</v>
+      </c>
+      <c r="C639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640">
+        <v>99</v>
+      </c>
+      <c r="B640">
+        <v>14</v>
+      </c>
+      <c r="C640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641">
+        <v>99</v>
+      </c>
+      <c r="B641">
+        <v>15</v>
+      </c>
+      <c r="C641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642">
+        <v>99</v>
+      </c>
+      <c r="B642">
+        <v>16</v>
+      </c>
+      <c r="C642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643">
+        <v>99</v>
+      </c>
+      <c r="B643">
+        <v>17</v>
+      </c>
+      <c r="C643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644">
+        <v>100</v>
+      </c>
+      <c r="B644">
+        <v>2</v>
+      </c>
+      <c r="C644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645">
+        <v>100</v>
+      </c>
+      <c r="B645">
+        <v>3</v>
+      </c>
+      <c r="C645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646">
+        <v>100</v>
+      </c>
+      <c r="B646">
+        <v>4</v>
+      </c>
+      <c r="C646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647">
+        <v>100</v>
+      </c>
+      <c r="B647">
+        <v>5</v>
+      </c>
+      <c r="C647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648">
+        <v>100</v>
+      </c>
+      <c r="B648">
+        <v>6</v>
+      </c>
+      <c r="C648">
         <v>1</v>
       </c>
     </row>

--- a/results/disponibilidad.xlsx
+++ b/results/disponibilidad.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -413,7 +413,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -424,7 +424,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -435,7 +435,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -457,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -468,7 +468,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -479,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -512,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -523,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -534,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -545,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -567,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>6</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -611,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -633,7 +633,7 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>9</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>10</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -787,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>12</v>
       </c>
       <c r="B39">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -820,7 +820,7 @@
         <v>12</v>
       </c>
       <c r="B40">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>12</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>13</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>13</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -864,7 +864,7 @@
         <v>13</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>13</v>
       </c>
       <c r="B45">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>14</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -908,7 +908,7 @@
         <v>14</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -919,7 +919,7 @@
         <v>15</v>
       </c>
       <c r="B49">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>15</v>
       </c>
       <c r="B50">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -941,7 +941,7 @@
         <v>15</v>
       </c>
       <c r="B51">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -952,7 +952,7 @@
         <v>15</v>
       </c>
       <c r="B52">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>15</v>
       </c>
       <c r="B53">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -974,7 +974,7 @@
         <v>16</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>16</v>
       </c>
       <c r="B55">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>16</v>
       </c>
       <c r="B56">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1007,7 +1007,7 @@
         <v>16</v>
       </c>
       <c r="B57">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="B58">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>17</v>
       </c>
       <c r="B59">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1040,7 +1040,7 @@
         <v>17</v>
       </c>
       <c r="B60">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>17</v>
       </c>
       <c r="B61">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1062,7 +1062,7 @@
         <v>17</v>
       </c>
       <c r="B62">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>19</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1117,7 +1117,7 @@
         <v>20</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>20</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1139,7 +1139,7 @@
         <v>20</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1150,7 +1150,7 @@
         <v>20</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>20</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1172,7 +1172,7 @@
         <v>21</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -1183,7 +1183,7 @@
         <v>21</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1194,7 +1194,7 @@
         <v>21</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1205,7 +1205,7 @@
         <v>22</v>
       </c>
       <c r="B75">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>22</v>
       </c>
       <c r="B76">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>23</v>
       </c>
       <c r="B77">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B78">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1271,7 +1271,7 @@
         <v>25</v>
       </c>
       <c r="B81">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1282,7 +1282,7 @@
         <v>25</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1293,7 +1293,7 @@
         <v>25</v>
       </c>
       <c r="B83">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -1304,7 +1304,7 @@
         <v>26</v>
       </c>
       <c r="B84">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1315,7 +1315,7 @@
         <v>26</v>
       </c>
       <c r="B85">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1326,7 +1326,7 @@
         <v>27</v>
       </c>
       <c r="B86">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1337,7 +1337,7 @@
         <v>27</v>
       </c>
       <c r="B87">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>27</v>
       </c>
       <c r="B88">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1359,7 +1359,7 @@
         <v>27</v>
       </c>
       <c r="B89">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -1370,7 +1370,7 @@
         <v>28</v>
       </c>
       <c r="B90">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>28</v>
       </c>
       <c r="B91">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>28</v>
       </c>
       <c r="B92">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>28</v>
       </c>
       <c r="B93">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>29</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>30</v>
       </c>
       <c r="B95">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -1436,7 +1436,7 @@
         <v>31</v>
       </c>
       <c r="B96">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -1447,7 +1447,7 @@
         <v>31</v>
       </c>
       <c r="B97">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -1458,7 +1458,7 @@
         <v>31</v>
       </c>
       <c r="B98">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -1469,7 +1469,7 @@
         <v>31</v>
       </c>
       <c r="B99">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>32</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -1491,7 +1491,7 @@
         <v>32</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -1502,7 +1502,7 @@
         <v>32</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         <v>32</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1524,7 +1524,7 @@
         <v>33</v>
       </c>
       <c r="B104">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         <v>33</v>
       </c>
       <c r="B105">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>33</v>
       </c>
       <c r="B106">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>34</v>
       </c>
       <c r="B107">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -1568,7 +1568,7 @@
         <v>34</v>
       </c>
       <c r="B108">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -1634,7 +1634,7 @@
         <v>36</v>
       </c>
       <c r="B114">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -1645,7 +1645,7 @@
         <v>36</v>
       </c>
       <c r="B115">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -1656,7 +1656,7 @@
         <v>36</v>
       </c>
       <c r="B116">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -1667,7 +1667,7 @@
         <v>36</v>
       </c>
       <c r="B117">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>37</v>
       </c>
       <c r="B118">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>37</v>
       </c>
       <c r="B119">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -1700,7 +1700,7 @@
         <v>37</v>
       </c>
       <c r="B120">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>37</v>
       </c>
       <c r="B121">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -1722,7 +1722,7 @@
         <v>37</v>
       </c>
       <c r="B122">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -1733,7 +1733,7 @@
         <v>38</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -1744,7 +1744,7 @@
         <v>38</v>
       </c>
       <c r="B124">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -1755,7 +1755,7 @@
         <v>39</v>
       </c>
       <c r="B125">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -1766,7 +1766,7 @@
         <v>39</v>
       </c>
       <c r="B126">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -1777,7 +1777,7 @@
         <v>39</v>
       </c>
       <c r="B127">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -1788,7 +1788,7 @@
         <v>39</v>
       </c>
       <c r="B128">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -1799,7 +1799,7 @@
         <v>39</v>
       </c>
       <c r="B129">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -1810,7 +1810,7 @@
         <v>40</v>
       </c>
       <c r="B130">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>41</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -1832,7 +1832,7 @@
         <v>41</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -1843,7 +1843,7 @@
         <v>42</v>
       </c>
       <c r="B133">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -1854,7 +1854,7 @@
         <v>42</v>
       </c>
       <c r="B134">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -1865,7 +1865,7 @@
         <v>42</v>
       </c>
       <c r="B135">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -1876,7 +1876,7 @@
         <v>43</v>
       </c>
       <c r="B136">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -1887,7 +1887,7 @@
         <v>43</v>
       </c>
       <c r="B137">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -1898,7 +1898,7 @@
         <v>43</v>
       </c>
       <c r="B138">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -1909,7 +1909,7 @@
         <v>44</v>
       </c>
       <c r="B139">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -1920,7 +1920,7 @@
         <v>44</v>
       </c>
       <c r="B140">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -1931,7 +1931,7 @@
         <v>44</v>
       </c>
       <c r="B141">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -1942,7 +1942,7 @@
         <v>45</v>
       </c>
       <c r="B142">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -1953,7 +1953,7 @@
         <v>46</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -1964,7 +1964,7 @@
         <v>46</v>
       </c>
       <c r="B144">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -1975,7 +1975,7 @@
         <v>47</v>
       </c>
       <c r="B145">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -1986,7 +1986,7 @@
         <v>47</v>
       </c>
       <c r="B146">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>47</v>
       </c>
       <c r="B147">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         <v>47</v>
       </c>
       <c r="B148">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -2052,7 +2052,7 @@
         <v>49</v>
       </c>
       <c r="B152">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -2063,7 +2063,7 @@
         <v>49</v>
       </c>
       <c r="B153">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -2074,7 +2074,7 @@
         <v>49</v>
       </c>
       <c r="B154">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -2085,7 +2085,7 @@
         <v>50</v>
       </c>
       <c r="B155">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         <v>50</v>
       </c>
       <c r="B156">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -2107,7 +2107,7 @@
         <v>51</v>
       </c>
       <c r="B157">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>51</v>
       </c>
       <c r="B158">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -2129,7 +2129,7 @@
         <v>52</v>
       </c>
       <c r="B159">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -2140,7 +2140,7 @@
         <v>53</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -2151,7 +2151,7 @@
         <v>54</v>
       </c>
       <c r="B161">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -2162,7 +2162,7 @@
         <v>55</v>
       </c>
       <c r="B162">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -2173,7 +2173,7 @@
         <v>56</v>
       </c>
       <c r="B163">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -2184,7 +2184,7 @@
         <v>56</v>
       </c>
       <c r="B164">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>56</v>
       </c>
       <c r="B165">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -2206,7 +2206,7 @@
         <v>56</v>
       </c>
       <c r="B166">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -2217,7 +2217,7 @@
         <v>57</v>
       </c>
       <c r="B167">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -2228,7 +2228,7 @@
         <v>57</v>
       </c>
       <c r="B168">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -2239,7 +2239,7 @@
         <v>57</v>
       </c>
       <c r="B169">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -2250,7 +2250,7 @@
         <v>57</v>
       </c>
       <c r="B170">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -2261,7 +2261,7 @@
         <v>57</v>
       </c>
       <c r="B171">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -2272,7 +2272,7 @@
         <v>58</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -2283,7 +2283,7 @@
         <v>58</v>
       </c>
       <c r="B173">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -2294,7 +2294,7 @@
         <v>58</v>
       </c>
       <c r="B174">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -2305,7 +2305,7 @@
         <v>58</v>
       </c>
       <c r="B175">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -2316,7 +2316,7 @@
         <v>58</v>
       </c>
       <c r="B176">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -2327,7 +2327,7 @@
         <v>59</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -2338,7 +2338,7 @@
         <v>59</v>
       </c>
       <c r="B178">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>59</v>
       </c>
       <c r="B179">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -2360,7 +2360,7 @@
         <v>59</v>
       </c>
       <c r="B180">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -2371,9 +2371,328 @@
         <v>59</v>
       </c>
       <c r="B181">
+        <v>20</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>60</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>61</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>61</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>61</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>61</v>
+      </c>
+      <c r="B186">
+        <v>4</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>62</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>62</v>
+      </c>
+      <c r="B188">
+        <v>3</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>63</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>64</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>65</v>
+      </c>
+      <c r="B191">
+        <v>14</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>65</v>
+      </c>
+      <c r="B192">
+        <v>15</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>65</v>
+      </c>
+      <c r="B193">
+        <v>16</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>66</v>
+      </c>
+      <c r="B194">
+        <v>14</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>66</v>
+      </c>
+      <c r="B195">
+        <v>15</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>67</v>
+      </c>
+      <c r="B196">
+        <v>14</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>67</v>
+      </c>
+      <c r="B197">
+        <v>15</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>67</v>
+      </c>
+      <c r="B198">
+        <v>16</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>67</v>
+      </c>
+      <c r="B199">
+        <v>17</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>67</v>
+      </c>
+      <c r="B200">
+        <v>18</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>68</v>
+      </c>
+      <c r="B201">
+        <v>4</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>68</v>
+      </c>
+      <c r="B202">
+        <v>5</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>68</v>
+      </c>
+      <c r="B203">
+        <v>6</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>69</v>
+      </c>
+      <c r="B204">
+        <v>4</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>69</v>
+      </c>
+      <c r="B205">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>69</v>
+      </c>
+      <c r="B206">
+        <v>6</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>69</v>
+      </c>
+      <c r="B207">
         <v>7</v>
       </c>
-      <c r="C181">
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>69</v>
+      </c>
+      <c r="B208">
+        <v>8</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>70</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>71</v>
+      </c>
+      <c r="B210">
+        <v>14</v>
+      </c>
+      <c r="C210">
         <v>1</v>
       </c>
     </row>
